--- a/Dataset/15/낮과밤_학습(15)/낮과밤10.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D535CC-4356-47E3-BF44-A9566E5B9437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F837FB-F98E-4F0F-87F0-F7D004B68253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="16329" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3529,7 +3529,7 @@
   <dimension ref="A1:F518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -3570,7 +3570,6 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E65" si="0">IF(ISBLANK(F2),D2,F2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3585,11 +3584,10 @@
         <v>1.4354345388710501E-2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">IF(C3&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3604,11 +3602,10 @@
         <v>1.793154701590538E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3623,11 +3620,10 @@
         <v>1.419895980507135E-2</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3642,11 +3638,10 @@
         <v>0.33111760020256042</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3661,11 +3656,10 @@
         <v>1.4433166012167931E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3680,11 +3674,10 @@
         <v>1.419607549905777E-2</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3699,11 +3692,10 @@
         <v>1.9504625350236889E-2</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3718,11 +3710,10 @@
         <v>1.4257813803851599E-2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3737,11 +3728,10 @@
         <v>0.99058210849761963</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3756,11 +3746,10 @@
         <v>0.98988974094390869</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3775,11 +3764,10 @@
         <v>0.99058377742767334</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3794,11 +3782,10 @@
         <v>0.98812371492385864</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
@@ -3816,11 +3803,10 @@
         <v>0.94477754831314087</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3835,11 +3821,10 @@
         <v>0.1114515885710716</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3854,11 +3839,10 @@
         <v>0.99056291580200195</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3873,11 +3857,10 @@
         <v>1.4984088949859141E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3892,11 +3875,10 @@
         <v>1.6734382137656208E-2</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3911,11 +3893,10 @@
         <v>1.439066603779793E-2</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3930,11 +3911,10 @@
         <v>4.4231336563825607E-2</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3949,11 +3929,10 @@
         <v>0.98523002862930298</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -3968,11 +3947,10 @@
         <v>1.4401436783373359E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3987,11 +3965,10 @@
         <v>0.98866850137710571</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4006,11 +3983,10 @@
         <v>1.443758327513933E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4025,11 +4001,10 @@
         <v>1.6099324449896809E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4044,11 +4019,10 @@
         <v>1.439834386110306E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4063,11 +4037,10 @@
         <v>0.9818195104598999</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28">
@@ -4085,11 +4058,10 @@
         <v>0.77565872669219971</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29">
@@ -4107,11 +4079,10 @@
         <v>0.61489081382751465</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30">
@@ -4129,11 +4100,10 @@
         <v>0.97538220882415771</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4148,11 +4118,10 @@
         <v>2.011456340551376E-2</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4167,11 +4136,10 @@
         <v>0.99038368463516235</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33">
@@ -4189,11 +4157,10 @@
         <v>2.3358523845672611E-2</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4208,11 +4175,10 @@
         <v>1.4249231666326519E-2</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4227,11 +4193,10 @@
         <v>1.4437019824981689E-2</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4246,11 +4211,10 @@
         <v>1.473639346659184E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4265,11 +4229,10 @@
         <v>1.527471374720335E-2</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4284,11 +4247,10 @@
         <v>1.4239524491131309E-2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4303,11 +4265,10 @@
         <v>1.4309920370578769E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,11 +4283,10 @@
         <v>1.454544439911842E-2</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4341,11 +4301,10 @@
         <v>1.463997270911932E-2</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4360,11 +4319,10 @@
         <v>1.5184919349849221E-2</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4379,11 +4337,10 @@
         <v>1.430072262883186E-2</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4398,11 +4355,10 @@
         <v>1.940243877470493E-2</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4417,11 +4373,10 @@
         <v>2.196750603616238E-2</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4436,11 +4391,10 @@
         <v>1.433525234460831E-2</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4455,11 +4409,10 @@
         <v>0.99058187007904053</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4474,11 +4427,10 @@
         <v>0.99060118198394775</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4493,11 +4445,10 @@
         <v>3.9541386067867279E-2</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4512,11 +4463,10 @@
         <v>1.4290583319962019E-2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4531,11 +4481,10 @@
         <v>0.99059462547302246</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4550,11 +4499,10 @@
         <v>1.4541515149176121E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4569,11 +4517,10 @@
         <v>0.90333974361419678</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4588,11 +4535,10 @@
         <v>0.96471476554870605</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F55">
@@ -4610,11 +4556,10 @@
         <v>1.475178543478251E-2</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4629,11 +4574,10 @@
         <v>0.99059730768203735</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4648,11 +4592,10 @@
         <v>0.98970651626586914</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -4667,11 +4610,10 @@
         <v>2.724806405603886E-2</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4686,11 +4628,10 @@
         <v>0.32372468709945679</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4705,11 +4646,10 @@
         <v>2.0352613180875782E-2</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4724,11 +4664,10 @@
         <v>1.4665584079921251E-2</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4743,11 +4682,10 @@
         <v>1.46484300494194E-2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4762,11 +4700,10 @@
         <v>1.451037637889385E-2</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4781,11 +4718,10 @@
         <v>1.419552881270647E-2</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -4800,11 +4736,10 @@
         <v>1.438045687973499E-2</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" ref="E66:E129" si="2">IF(ISBLANK(F66),D66,F66)</f>
         <v>0</v>
       </c>
     </row>
@@ -4819,11 +4754,10 @@
         <v>1.425499934703112E-2</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="3">IF(C67&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4838,11 +4772,10 @@
         <v>2.43149921298027E-2</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4857,11 +4790,10 @@
         <v>1.432511582970619E-2</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4876,11 +4808,10 @@
         <v>1.4501010999083521E-2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4895,11 +4826,10 @@
         <v>2.0740814507007599E-2</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4914,11 +4844,10 @@
         <v>1.419524289667606E-2</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4933,11 +4862,10 @@
         <v>2.2699311375617981E-2</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4952,11 +4880,10 @@
         <v>1.4590028673410421E-2</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4971,11 +4898,10 @@
         <v>1.417749002575874E-2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4990,11 +4916,10 @@
         <v>1.4418949373066431E-2</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,11 +4934,10 @@
         <v>2.4329556152224541E-2</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5028,11 +4952,10 @@
         <v>2.5209551677107811E-2</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5047,11 +4970,10 @@
         <v>1.653247140347958E-2</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5066,11 +4988,10 @@
         <v>0.33099612593650818</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5085,11 +5006,10 @@
         <v>1.4303700067102911E-2</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5104,11 +5024,10 @@
         <v>1.462231948971748E-2</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5123,11 +5042,10 @@
         <v>1.459803804755211E-2</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5142,11 +5060,10 @@
         <v>1.4446046203374859E-2</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5161,11 +5078,10 @@
         <v>1.536535564810038E-2</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5180,11 +5096,10 @@
         <v>1.506769564002752E-2</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5199,11 +5114,10 @@
         <v>1.6317036002874371E-2</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5218,11 +5132,10 @@
         <v>2.8751179575920102E-2</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5237,11 +5150,10 @@
         <v>0.80112361907958984</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F89">
@@ -5259,11 +5171,10 @@
         <v>1.4512871392071251E-2</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5278,11 +5189,10 @@
         <v>1.6372095793485641E-2</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5297,11 +5207,10 @@
         <v>1.4443249441683291E-2</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5316,11 +5225,10 @@
         <v>1.422633789479733E-2</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5335,11 +5243,10 @@
         <v>1.4939765445888041E-2</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5354,11 +5261,10 @@
         <v>1.447607856243849E-2</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5373,11 +5279,10 @@
         <v>1.506632193922997E-2</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5392,11 +5297,10 @@
         <v>1.5112981200218201E-2</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5411,11 +5315,10 @@
         <v>1.4983476139605051E-2</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5430,11 +5333,10 @@
         <v>2.1474046632647511E-2</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E99">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5449,11 +5351,10 @@
         <v>1.576693169772625E-2</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E100">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5468,11 +5369,10 @@
         <v>1.4160798862576479E-2</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E101">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5487,11 +5387,10 @@
         <v>1.4530668966472151E-2</v>
       </c>
       <c r="D102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E102">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5506,11 +5405,10 @@
         <v>1.619973964989185E-2</v>
       </c>
       <c r="D103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E103">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5525,11 +5423,10 @@
         <v>1.4738596044480801E-2</v>
       </c>
       <c r="D104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E104">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5544,11 +5441,10 @@
         <v>2.1497089415788651E-2</v>
       </c>
       <c r="D105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E105">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5563,11 +5459,10 @@
         <v>1.486497558653355E-2</v>
       </c>
       <c r="D106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E106">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5582,11 +5477,10 @@
         <v>3.3770162612199783E-2</v>
       </c>
       <c r="D107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E107">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5601,11 +5495,10 @@
         <v>1.5810137614607811E-2</v>
       </c>
       <c r="D108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E108">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5620,11 +5513,10 @@
         <v>1.4260930940508841E-2</v>
       </c>
       <c r="D109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E109">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5639,11 +5531,10 @@
         <v>1.425429619848728E-2</v>
       </c>
       <c r="D110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E110">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5658,11 +5549,10 @@
         <v>1.4667617157101629E-2</v>
       </c>
       <c r="D111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E111">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5677,11 +5567,10 @@
         <v>1.4243366196751589E-2</v>
       </c>
       <c r="D112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E112">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5696,11 +5585,10 @@
         <v>1.4193686656653879E-2</v>
       </c>
       <c r="D113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5715,11 +5603,10 @@
         <v>1.489311549812555E-2</v>
       </c>
       <c r="D114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E114">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5734,11 +5621,10 @@
         <v>3.3228140324354172E-2</v>
       </c>
       <c r="D115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E115">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5753,11 +5639,10 @@
         <v>1.417360547930002E-2</v>
       </c>
       <c r="D116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E116">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5772,11 +5657,10 @@
         <v>1.496503408998251E-2</v>
       </c>
       <c r="D117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E117">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5791,11 +5675,10 @@
         <v>1.434074342250824E-2</v>
       </c>
       <c r="D118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E118">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5810,11 +5693,10 @@
         <v>1.473148632794619E-2</v>
       </c>
       <c r="D119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E119">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5829,11 +5711,10 @@
         <v>1.4288997277617449E-2</v>
       </c>
       <c r="D120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5848,11 +5729,10 @@
         <v>1.5712002292275429E-2</v>
       </c>
       <c r="D121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5867,11 +5747,10 @@
         <v>1.4372125267982479E-2</v>
       </c>
       <c r="D122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5886,11 +5765,10 @@
         <v>1.4394223690032961E-2</v>
       </c>
       <c r="D123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5905,11 +5783,10 @@
         <v>1.976980455219746E-2</v>
       </c>
       <c r="D124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5924,11 +5801,10 @@
         <v>1.4247056096792219E-2</v>
       </c>
       <c r="D125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5943,11 +5819,10 @@
         <v>1.4188431203365329E-2</v>
       </c>
       <c r="D126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E126">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5962,11 +5837,10 @@
         <v>1.518002804368734E-2</v>
       </c>
       <c r="D127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E127">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5981,11 +5855,10 @@
         <v>0.99004513025283813</v>
       </c>
       <c r="D128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E128">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -6000,11 +5873,10 @@
         <v>1.456777192652225E-2</v>
       </c>
       <c r="D129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6019,11 +5891,10 @@
         <v>1.496102847158909E-2</v>
       </c>
       <c r="D130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E130">
-        <f t="shared" ref="E130:E193" si="4">IF(ISBLANK(F130),D130,F130)</f>
         <v>0</v>
       </c>
     </row>
@@ -6038,11 +5909,10 @@
         <v>1.417927071452141E-2</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="5">IF(C131&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E131">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6057,11 +5927,10 @@
         <v>0.90503448247909546</v>
       </c>
       <c r="D132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E132">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F132">
@@ -6079,11 +5948,10 @@
         <v>1.4202490448951719E-2</v>
       </c>
       <c r="D133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E133">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6098,11 +5966,10 @@
         <v>2.7967903763055801E-2</v>
       </c>
       <c r="D134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6117,11 +5984,10 @@
         <v>1.443730480968952E-2</v>
       </c>
       <c r="D135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E135">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6136,11 +6002,10 @@
         <v>1.418341603130102E-2</v>
       </c>
       <c r="D136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E136">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6155,11 +6020,10 @@
         <v>1.4233909547328951E-2</v>
       </c>
       <c r="D137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E137">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6174,11 +6038,10 @@
         <v>1.4329127967357641E-2</v>
       </c>
       <c r="D138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E138">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6193,11 +6056,10 @@
         <v>1.444616913795471E-2</v>
       </c>
       <c r="D139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E139">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6212,11 +6074,10 @@
         <v>1.426999643445015E-2</v>
       </c>
       <c r="D140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E140">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6231,11 +6092,10 @@
         <v>1.4213088899850851E-2</v>
       </c>
       <c r="D141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E141">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6250,11 +6110,10 @@
         <v>1.440339256078005E-2</v>
       </c>
       <c r="D142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E142">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6269,11 +6128,10 @@
         <v>1.5048861503601071E-2</v>
       </c>
       <c r="D143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E143">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6288,11 +6146,10 @@
         <v>1.5697356313467029E-2</v>
       </c>
       <c r="D144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E144">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6307,11 +6164,10 @@
         <v>1.4211266301572319E-2</v>
       </c>
       <c r="D145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E145">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6326,11 +6182,10 @@
         <v>1.423645857721567E-2</v>
       </c>
       <c r="D146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E146">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6345,11 +6200,10 @@
         <v>1.4165272004902359E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E147">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6364,11 +6218,10 @@
         <v>1.4354264363646511E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E148">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6383,11 +6236,10 @@
         <v>1.9005915150046349E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E149">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6402,11 +6254,10 @@
         <v>1.423144154250622E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E150">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6421,11 +6272,10 @@
         <v>1.417160034179688E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E151">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6440,11 +6290,10 @@
         <v>1.425646804273129E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E152">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6459,11 +6308,10 @@
         <v>1.433926075696945E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E153">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6478,11 +6326,10 @@
         <v>1.441109087318182E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E154">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6497,11 +6344,10 @@
         <v>1.432915590703487E-2</v>
       </c>
       <c r="D155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E155">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6516,11 +6362,10 @@
         <v>1.419500168412924E-2</v>
       </c>
       <c r="D156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E156">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6535,11 +6380,10 @@
         <v>1.470275595784187E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6554,11 +6398,10 @@
         <v>1.423200219869614E-2</v>
       </c>
       <c r="D158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E158">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6573,11 +6416,10 @@
         <v>1.4251113869249821E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E159">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6592,11 +6434,10 @@
         <v>1.4229460619390011E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E160">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6611,11 +6452,10 @@
         <v>0.91240918636322021</v>
       </c>
       <c r="D161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E161">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F161">
@@ -6633,11 +6473,10 @@
         <v>0.99054378271102905</v>
       </c>
       <c r="D162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E162">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -6652,11 +6491,10 @@
         <v>2.0547317340970039E-2</v>
       </c>
       <c r="D163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E163">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6671,11 +6509,10 @@
         <v>0.33105236291885382</v>
       </c>
       <c r="D164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E164">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6690,11 +6527,10 @@
         <v>1.419316790997982E-2</v>
       </c>
       <c r="D165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E165">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6709,11 +6545,10 @@
         <v>1.4274585992097849E-2</v>
       </c>
       <c r="D166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E166">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6728,11 +6563,10 @@
         <v>1.4177976176142691E-2</v>
       </c>
       <c r="D167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E167">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6747,11 +6581,10 @@
         <v>1.45352715626359E-2</v>
       </c>
       <c r="D168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E168">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6766,11 +6599,10 @@
         <v>5.299600213766098E-2</v>
       </c>
       <c r="D169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E169">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6785,11 +6617,10 @@
         <v>1.488842070102692E-2</v>
       </c>
       <c r="D170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E170">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6804,11 +6635,10 @@
         <v>0.59544318914413452</v>
       </c>
       <c r="D171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E171">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F171">
@@ -6826,11 +6656,10 @@
         <v>6.2568023800849915E-2</v>
       </c>
       <c r="D172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E172">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6845,11 +6674,10 @@
         <v>1.6262587159872059E-2</v>
       </c>
       <c r="D173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E173">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6864,11 +6692,10 @@
         <v>3.7748899310827262E-2</v>
       </c>
       <c r="D174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E174">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6883,11 +6710,10 @@
         <v>1.4234223403036589E-2</v>
       </c>
       <c r="D175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E175">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6902,11 +6728,10 @@
         <v>1.457152981311083E-2</v>
       </c>
       <c r="D176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E176">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6921,11 +6746,10 @@
         <v>1.4470786787569519E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E177">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6940,11 +6764,10 @@
         <v>4.2488541454076767E-2</v>
       </c>
       <c r="D178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E178">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6959,11 +6782,10 @@
         <v>1.512875966727734E-2</v>
       </c>
       <c r="D179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E179">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6978,11 +6800,10 @@
         <v>1.4256211929023269E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E180">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6997,11 +6818,10 @@
         <v>1.428208872675896E-2</v>
       </c>
       <c r="D181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E181">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7016,11 +6836,10 @@
         <v>1.5248056501150129E-2</v>
       </c>
       <c r="D182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E182">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7035,11 +6854,10 @@
         <v>1.5134545043110849E-2</v>
       </c>
       <c r="D183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E183">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7054,11 +6872,10 @@
         <v>4.7838132828474038E-2</v>
       </c>
       <c r="D184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E184">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7073,11 +6890,10 @@
         <v>1.4178464189171789E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E185">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7092,11 +6908,10 @@
         <v>1.420628372579813E-2</v>
       </c>
       <c r="D186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E186">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7111,11 +6926,10 @@
         <v>3.0785679817199711E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E187">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7130,11 +6944,10 @@
         <v>0.33435496687889099</v>
       </c>
       <c r="D188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E188">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7149,11 +6962,10 @@
         <v>1.417175401002169E-2</v>
       </c>
       <c r="D189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E189">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7168,11 +6980,10 @@
         <v>0.95617890357971191</v>
       </c>
       <c r="D190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E190">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F190">
@@ -7190,11 +7001,10 @@
         <v>1.655456610023975E-2</v>
       </c>
       <c r="D191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E191">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7209,11 +7019,10 @@
         <v>1.9820034503936771E-2</v>
       </c>
       <c r="D192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E192">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7228,11 +7037,10 @@
         <v>2.3552533239126209E-2</v>
       </c>
       <c r="D193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E193">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -7247,11 +7055,10 @@
         <v>1.443857327103615E-2</v>
       </c>
       <c r="D194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E194">
-        <f t="shared" ref="E194:E257" si="6">IF(ISBLANK(F194),D194,F194)</f>
         <v>0</v>
       </c>
     </row>
@@ -7266,11 +7073,10 @@
         <v>1.857320033013821E-2</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="7">IF(C195&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E195">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7285,11 +7091,10 @@
         <v>5.1265351474285133E-2</v>
       </c>
       <c r="D196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E196">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7304,11 +7109,10 @@
         <v>0.99058341979980469</v>
       </c>
       <c r="D197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E197">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7323,11 +7127,10 @@
         <v>0.86199092864990234</v>
       </c>
       <c r="D198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E198">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F198">
@@ -7345,11 +7148,10 @@
         <v>0.9906010627746582</v>
       </c>
       <c r="D199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E199">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F199">
@@ -7367,11 +7169,10 @@
         <v>7.103370875120163E-2</v>
       </c>
       <c r="D200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E200">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7386,11 +7187,10 @@
         <v>1.5056595206260679E-2</v>
       </c>
       <c r="D201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E201">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7405,11 +7205,10 @@
         <v>1.422477979212999E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E202">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7424,11 +7223,10 @@
         <v>0.8849676251411438</v>
       </c>
       <c r="D203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E203">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F203">
@@ -7446,11 +7244,10 @@
         <v>3.6158286035060883E-2</v>
       </c>
       <c r="D204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E204">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7465,11 +7262,10 @@
         <v>0.99055534601211548</v>
       </c>
       <c r="D205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E205">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7484,11 +7280,10 @@
         <v>0.99055331945419312</v>
       </c>
       <c r="D206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E206">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7503,11 +7298,10 @@
         <v>0.99055463075637817</v>
       </c>
       <c r="D207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E207">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7522,11 +7316,10 @@
         <v>1.464383956044912E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E208">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7541,11 +7334,10 @@
         <v>0.99058049917221069</v>
       </c>
       <c r="D209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E209">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7560,11 +7352,10 @@
         <v>3.1338721513748169E-2</v>
       </c>
       <c r="D210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E210">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7579,11 +7370,10 @@
         <v>1.590946689248085E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E211">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7598,11 +7388,10 @@
         <v>1.5219364315271379E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E212">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7617,11 +7406,10 @@
         <v>1.45178996026516E-2</v>
       </c>
       <c r="D213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E213">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7636,11 +7424,10 @@
         <v>0.22615182399749759</v>
       </c>
       <c r="D214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E214">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7655,11 +7442,10 @@
         <v>1.4890778809785839E-2</v>
       </c>
       <c r="D215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E215">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7674,11 +7460,10 @@
         <v>2.8895596042275429E-2</v>
       </c>
       <c r="D216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E216">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7693,11 +7478,10 @@
         <v>1.5302258543670179E-2</v>
       </c>
       <c r="D217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E217">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7712,11 +7496,10 @@
         <v>1.4230784028768539E-2</v>
       </c>
       <c r="D218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E218">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7731,11 +7514,10 @@
         <v>5.2468430250883102E-2</v>
       </c>
       <c r="D219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E219">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7750,11 +7532,10 @@
         <v>1.5099090524017811E-2</v>
       </c>
       <c r="D220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E220">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7769,11 +7550,10 @@
         <v>1.4194627292454239E-2</v>
       </c>
       <c r="D221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E221">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7788,11 +7568,10 @@
         <v>1.8436377868056301E-2</v>
       </c>
       <c r="D222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E222">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7807,11 +7586,10 @@
         <v>2.82734539359808E-2</v>
       </c>
       <c r="D223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E223">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7826,11 +7604,10 @@
         <v>1.509181782603264E-2</v>
       </c>
       <c r="D224">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E224">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7845,11 +7622,10 @@
         <v>5.2008830010890961E-2</v>
       </c>
       <c r="D225">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E225">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7864,11 +7640,10 @@
         <v>1.9432129338383671E-2</v>
       </c>
       <c r="D226">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E226">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7883,11 +7658,10 @@
         <v>2.6346128433942791E-2</v>
       </c>
       <c r="D227">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E227">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7902,11 +7676,10 @@
         <v>0.99004608392715454</v>
       </c>
       <c r="D228">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E228">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7921,11 +7694,10 @@
         <v>1.9298959523439411E-2</v>
       </c>
       <c r="D229">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E229">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7940,11 +7712,10 @@
         <v>3.3004689961671829E-2</v>
       </c>
       <c r="D230">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E230">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7959,11 +7730,10 @@
         <v>1.440697442740202E-2</v>
       </c>
       <c r="D231">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E231">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7978,11 +7748,10 @@
         <v>1.6168892383575439E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E232">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -7997,11 +7766,10 @@
         <v>0.33110514283180242</v>
       </c>
       <c r="D233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E233">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8016,11 +7784,10 @@
         <v>1.4296280220150949E-2</v>
       </c>
       <c r="D234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E234">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8035,11 +7802,10 @@
         <v>1.4613033272325991E-2</v>
       </c>
       <c r="D235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E235">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8054,11 +7820,10 @@
         <v>1.421977858990431E-2</v>
       </c>
       <c r="D236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E236">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8073,11 +7838,10 @@
         <v>1.421727985143661E-2</v>
       </c>
       <c r="D237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E237">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8092,11 +7856,10 @@
         <v>1.9635053351521489E-2</v>
       </c>
       <c r="D238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E238">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8111,11 +7874,10 @@
         <v>0.99052023887634277</v>
       </c>
       <c r="D239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E239">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8130,11 +7892,10 @@
         <v>1.5066223219037059E-2</v>
       </c>
       <c r="D240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E240">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8149,11 +7910,10 @@
         <v>1.478904765099287E-2</v>
       </c>
       <c r="D241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E241">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8168,11 +7928,10 @@
         <v>0.94501161575317383</v>
       </c>
       <c r="D242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E242">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8187,11 +7946,10 @@
         <v>1.468928623944521E-2</v>
       </c>
       <c r="D243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E243">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8206,11 +7964,10 @@
         <v>1.455932669341564E-2</v>
       </c>
       <c r="D244">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E244">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8225,11 +7982,10 @@
         <v>2.0077509805560109E-2</v>
       </c>
       <c r="D245">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E245">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8244,11 +8000,10 @@
         <v>0.99048876762390137</v>
       </c>
       <c r="D246">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E246">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8263,11 +8018,10 @@
         <v>0.99056351184844971</v>
       </c>
       <c r="D247">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E247">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8282,11 +8036,10 @@
         <v>0.99057430028915405</v>
       </c>
       <c r="D248">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E248">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8301,11 +8054,10 @@
         <v>0.99051827192306519</v>
       </c>
       <c r="D249">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E249">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8320,11 +8072,10 @@
         <v>1.425128150731325E-2</v>
       </c>
       <c r="D250">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E250">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8339,11 +8090,10 @@
         <v>1.7045414075255391E-2</v>
       </c>
       <c r="D251">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E251">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8358,11 +8108,10 @@
         <v>2.1602010354399681E-2</v>
       </c>
       <c r="D252">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E252">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8377,11 +8126,10 @@
         <v>1.7452221363782879E-2</v>
       </c>
       <c r="D253">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E253">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8396,11 +8144,10 @@
         <v>0.54828566312789917</v>
       </c>
       <c r="D254">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E254">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F254">
@@ -8418,11 +8165,10 @@
         <v>1.5523909591138359E-2</v>
       </c>
       <c r="D255">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E255">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8437,11 +8183,10 @@
         <v>1.4177523553371429E-2</v>
       </c>
       <c r="D256">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E256">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8456,11 +8201,10 @@
         <v>1.554284431040287E-2</v>
       </c>
       <c r="D257">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E257">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8475,11 +8219,10 @@
         <v>1.5199680812656879E-2</v>
       </c>
       <c r="D258">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E258">
-        <f t="shared" ref="E258:E321" si="8">IF(ISBLANK(F258),D258,F258)</f>
         <v>0</v>
       </c>
     </row>
@@ -8494,11 +8237,10 @@
         <v>1.4395291917026039E-2</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="9">IF(C259&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E259">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8513,11 +8255,10 @@
         <v>1.458058413118124E-2</v>
       </c>
       <c r="D260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E260">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8532,11 +8273,10 @@
         <v>2.936085686087608E-2</v>
       </c>
       <c r="D261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E261">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8551,11 +8291,10 @@
         <v>3.8572214543819427E-2</v>
       </c>
       <c r="D262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E262">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8570,11 +8309,10 @@
         <v>0.33109813928604132</v>
       </c>
       <c r="D263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E263">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8589,11 +8327,10 @@
         <v>1.4956973493099209E-2</v>
       </c>
       <c r="D264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E264">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8608,11 +8345,10 @@
         <v>0.33117738366127009</v>
       </c>
       <c r="D265">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E265">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8627,11 +8363,10 @@
         <v>1.454202178865671E-2</v>
       </c>
       <c r="D266">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E266">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8646,11 +8381,10 @@
         <v>2.485263533890247E-2</v>
       </c>
       <c r="D267">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E267">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8665,11 +8399,10 @@
         <v>1.4535011723637579E-2</v>
       </c>
       <c r="D268">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E268">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8684,11 +8417,10 @@
         <v>1.653561182320118E-2</v>
       </c>
       <c r="D269">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E269">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8703,11 +8435,10 @@
         <v>2.079073898494244E-2</v>
       </c>
       <c r="D270">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E270">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8722,11 +8453,10 @@
         <v>1.460408978164196E-2</v>
       </c>
       <c r="D271">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E271">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8741,11 +8471,10 @@
         <v>1.453303918242455E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E272">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8760,11 +8489,10 @@
         <v>1.4419804327189921E-2</v>
       </c>
       <c r="D273">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E273">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8779,11 +8507,10 @@
         <v>1.577872596681118E-2</v>
       </c>
       <c r="D274">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E274">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8798,11 +8525,10 @@
         <v>1.4466488733887671E-2</v>
       </c>
       <c r="D275">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E275">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8817,11 +8543,10 @@
         <v>1.4303175732493401E-2</v>
       </c>
       <c r="D276">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E276">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8836,11 +8561,10 @@
         <v>1.429738104343414E-2</v>
       </c>
       <c r="D277">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E277">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8855,11 +8579,10 @@
         <v>1.428748667240143E-2</v>
       </c>
       <c r="D278">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E278">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8874,11 +8597,10 @@
         <v>2.4226449429988861E-2</v>
       </c>
       <c r="D279">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E279">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8893,11 +8615,10 @@
         <v>1.4642518013715741E-2</v>
       </c>
       <c r="D280">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E280">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8912,11 +8633,10 @@
         <v>1.7823537811636921E-2</v>
       </c>
       <c r="D281">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E281">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8931,11 +8651,10 @@
         <v>0.5168452262878418</v>
       </c>
       <c r="D282">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E282">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F282">
@@ -8953,11 +8672,10 @@
         <v>1.58856101334095E-2</v>
       </c>
       <c r="D283">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E283">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8972,11 +8690,10 @@
         <v>1.440511178225279E-2</v>
       </c>
       <c r="D284">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E284">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -8991,11 +8708,10 @@
         <v>1.446260698139668E-2</v>
       </c>
       <c r="D285">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E285">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9010,11 +8726,10 @@
         <v>1.494608912616968E-2</v>
       </c>
       <c r="D286">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E286">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9029,11 +8744,10 @@
         <v>3.6702234297990799E-2</v>
       </c>
       <c r="D287">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E287">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9048,11 +8762,10 @@
         <v>0.99013465642929077</v>
       </c>
       <c r="D288">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E288">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9067,11 +8780,10 @@
         <v>1.422762870788574E-2</v>
       </c>
       <c r="D289">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E289">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9086,11 +8798,10 @@
         <v>1.9121179357171059E-2</v>
       </c>
       <c r="D290">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E290">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9105,11 +8816,10 @@
         <v>2.8790812939405441E-2</v>
       </c>
       <c r="D291">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E291">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9124,11 +8834,10 @@
         <v>1.7303647473454479E-2</v>
       </c>
       <c r="D292">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E292">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9143,11 +8852,10 @@
         <v>1.4289575628936291E-2</v>
       </c>
       <c r="D293">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E293">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9162,11 +8870,10 @@
         <v>0.99060970544815063</v>
       </c>
       <c r="D294">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E294">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F294">
@@ -9184,11 +8891,10 @@
         <v>1.4837697148323061E-2</v>
       </c>
       <c r="D295">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E295">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9203,11 +8909,10 @@
         <v>3.3954013139009483E-2</v>
       </c>
       <c r="D296">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E296">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9222,11 +8927,10 @@
         <v>1.431041862815619E-2</v>
       </c>
       <c r="D297">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E297">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9241,11 +8945,10 @@
         <v>1.4302517287433149E-2</v>
       </c>
       <c r="D298">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E298">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9260,11 +8963,10 @@
         <v>0.99054443836212158</v>
       </c>
       <c r="D299">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E299">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9279,11 +8981,10 @@
         <v>0.99051439762115479</v>
       </c>
       <c r="D300">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E300">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9298,11 +8999,10 @@
         <v>0.99058026075363159</v>
       </c>
       <c r="D301">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E301">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9317,11 +9017,10 @@
         <v>1.6466012224555019E-2</v>
       </c>
       <c r="D302">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E302">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9336,11 +9035,10 @@
         <v>1.4334605075418951E-2</v>
       </c>
       <c r="D303">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E303">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9355,11 +9053,10 @@
         <v>1.4424684457480909E-2</v>
       </c>
       <c r="D304">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E304">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9374,11 +9071,10 @@
         <v>0.19414626061916351</v>
       </c>
       <c r="D305">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E305">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9393,11 +9089,10 @@
         <v>0.90957516431808472</v>
       </c>
       <c r="D306">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E306">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F306">
@@ -9415,11 +9110,10 @@
         <v>0.1028727740049362</v>
       </c>
       <c r="D307">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E307">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9434,11 +9128,10 @@
         <v>1.4608564786612989E-2</v>
       </c>
       <c r="D308">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E308">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9453,11 +9146,10 @@
         <v>0.14770421385765081</v>
       </c>
       <c r="D309">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E309">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9472,11 +9164,10 @@
         <v>0.98658657073974609</v>
       </c>
       <c r="D310">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E310">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9491,11 +9182,10 @@
         <v>1.43906120210886E-2</v>
       </c>
       <c r="D311">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E311">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9510,11 +9200,10 @@
         <v>1.7983447760343552E-2</v>
       </c>
       <c r="D312">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E312">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9529,11 +9218,10 @@
         <v>1.55233470723033E-2</v>
       </c>
       <c r="D313">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E313">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9548,11 +9236,10 @@
         <v>1.615073531866074E-2</v>
       </c>
       <c r="D314">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E314">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9567,11 +9254,10 @@
         <v>1.464295107871294E-2</v>
       </c>
       <c r="D315">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E315">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9586,11 +9272,10 @@
         <v>3.027905710041523E-2</v>
       </c>
       <c r="D316">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E316">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9605,11 +9290,10 @@
         <v>1.99182815849781E-2</v>
       </c>
       <c r="D317">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E317">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9624,11 +9308,10 @@
         <v>1.4295574277639391E-2</v>
       </c>
       <c r="D318">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E318">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9643,11 +9326,10 @@
         <v>1.439536642283201E-2</v>
       </c>
       <c r="D319">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E319">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9662,11 +9344,10 @@
         <v>0.99007529020309448</v>
       </c>
       <c r="D320">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E320">
-        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -9681,11 +9362,10 @@
         <v>1.434074342250824E-2</v>
       </c>
       <c r="D321">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E321">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -9700,11 +9380,10 @@
         <v>3.6423813551664352E-2</v>
       </c>
       <c r="D322">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E322">
-        <f t="shared" ref="E322:E385" si="10">IF(ISBLANK(F322),D322,F322)</f>
         <v>0</v>
       </c>
     </row>
@@ -9719,11 +9398,10 @@
         <v>1.554608531296253E-2</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="11">IF(C323&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E323">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9738,11 +9416,10 @@
         <v>1.7544832080602649E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E324">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9757,11 +9434,10 @@
         <v>1.420606952160597E-2</v>
       </c>
       <c r="D325">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E325">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9776,11 +9452,10 @@
         <v>2.5923315435647961E-2</v>
       </c>
       <c r="D326">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9795,11 +9470,10 @@
         <v>1.4675868675112721E-2</v>
       </c>
       <c r="D327">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E327">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9814,11 +9488,10 @@
         <v>0.9357907772064209</v>
       </c>
       <c r="D328">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E328">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9833,11 +9506,10 @@
         <v>1.4685124158859249E-2</v>
       </c>
       <c r="D329">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E329">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9852,11 +9524,10 @@
         <v>2.6691587641835209E-2</v>
       </c>
       <c r="D330">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E330">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9871,11 +9542,10 @@
         <v>2.6727672666311261E-2</v>
       </c>
       <c r="D331">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E331">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9890,11 +9560,10 @@
         <v>1.6339913010597229E-2</v>
       </c>
       <c r="D332">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E332">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9909,11 +9578,10 @@
         <v>2.3424327373504639E-2</v>
       </c>
       <c r="D333">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E333">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9928,11 +9596,10 @@
         <v>1.556924916803837E-2</v>
       </c>
       <c r="D334">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E334">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9947,11 +9614,10 @@
         <v>1.419402100145817E-2</v>
       </c>
       <c r="D335">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E335">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9966,11 +9632,10 @@
         <v>1.449197810143232E-2</v>
       </c>
       <c r="D336">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E336">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -9985,11 +9650,10 @@
         <v>1.4238640666008001E-2</v>
       </c>
       <c r="D337">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E337">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10004,11 +9668,10 @@
         <v>1.504157669842243E-2</v>
       </c>
       <c r="D338">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E338">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10023,11 +9686,10 @@
         <v>1.419197302311659E-2</v>
       </c>
       <c r="D339">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E339">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10042,11 +9704,10 @@
         <v>1.4421979896724221E-2</v>
       </c>
       <c r="D340">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E340">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10061,11 +9722,10 @@
         <v>1.6946937888860699E-2</v>
       </c>
       <c r="D341">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E341">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10080,11 +9740,10 @@
         <v>1.4216979034245011E-2</v>
       </c>
       <c r="D342">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E342">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10099,11 +9758,10 @@
         <v>1.449852995574474E-2</v>
       </c>
       <c r="D343">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E343">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10118,11 +9776,10 @@
         <v>1.416029222309589E-2</v>
       </c>
       <c r="D344">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E344">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10137,11 +9794,10 @@
         <v>1.427630987018347E-2</v>
       </c>
       <c r="D345">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E345">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10156,11 +9812,10 @@
         <v>1.501215342432261E-2</v>
       </c>
       <c r="D346">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E346">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10175,11 +9830,10 @@
         <v>8.4934987127780914E-2</v>
       </c>
       <c r="D347">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E347">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10194,11 +9848,10 @@
         <v>0.98984420299530029</v>
       </c>
       <c r="D348">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E348">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F348">
@@ -10216,11 +9869,10 @@
         <v>1.5046924352645871E-2</v>
       </c>
       <c r="D349">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E349">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10235,11 +9887,10 @@
         <v>1.4244892634451389E-2</v>
       </c>
       <c r="D350">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E350">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10254,11 +9905,10 @@
         <v>1.4648209325969219E-2</v>
       </c>
       <c r="D351">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E351">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10273,11 +9923,10 @@
         <v>1.4440705068409439E-2</v>
       </c>
       <c r="D352">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E352">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10292,11 +9941,10 @@
         <v>1.437346916645765E-2</v>
       </c>
       <c r="D353">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E353">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10311,11 +9959,10 @@
         <v>1.620404236018658E-2</v>
       </c>
       <c r="D354">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E354">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10330,11 +9977,10 @@
         <v>1.424961443990469E-2</v>
       </c>
       <c r="D355">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E355">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10349,11 +9995,10 @@
         <v>1.4311501756310459E-2</v>
       </c>
       <c r="D356">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E356">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10368,11 +10013,10 @@
         <v>1.467935740947723E-2</v>
       </c>
       <c r="D357">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E357">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10387,11 +10031,10 @@
         <v>1.47428959608078E-2</v>
       </c>
       <c r="D358">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E358">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10406,11 +10049,10 @@
         <v>1.422626990824938E-2</v>
       </c>
       <c r="D359">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E359">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10425,11 +10067,10 @@
         <v>1.4235228300094599E-2</v>
       </c>
       <c r="D360">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E360">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10444,11 +10085,10 @@
         <v>1.4231200329959391E-2</v>
       </c>
       <c r="D361">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E361">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10463,11 +10103,10 @@
         <v>1.4341128058731559E-2</v>
       </c>
       <c r="D362">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E362">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10482,11 +10121,10 @@
         <v>1.6470398753881451E-2</v>
       </c>
       <c r="D363">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E363">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10501,11 +10139,10 @@
         <v>1.4351188205182551E-2</v>
       </c>
       <c r="D364">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E364">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10520,11 +10157,10 @@
         <v>4.6949904412031167E-2</v>
       </c>
       <c r="D365">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E365">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10539,11 +10175,10 @@
         <v>3.5497285425662987E-2</v>
       </c>
       <c r="D366">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E366">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10558,11 +10193,10 @@
         <v>0.87566721439361572</v>
       </c>
       <c r="D367">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E367">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10577,11 +10211,10 @@
         <v>1.439771428704262E-2</v>
       </c>
       <c r="D368">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E368">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10596,11 +10229,10 @@
         <v>0.98990333080291748</v>
       </c>
       <c r="D369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E369">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F369">
@@ -10618,11 +10250,10 @@
         <v>0.33097571134567261</v>
       </c>
       <c r="D370">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E370">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10637,11 +10268,10 @@
         <v>1.4220660552382469E-2</v>
       </c>
       <c r="D371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E371">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10656,11 +10286,10 @@
         <v>1.4907063916325569E-2</v>
       </c>
       <c r="D372">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E372">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10675,11 +10304,10 @@
         <v>1.548971701413393E-2</v>
       </c>
       <c r="D373">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E373">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10694,11 +10322,10 @@
         <v>1.435050647705793E-2</v>
       </c>
       <c r="D374">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E374">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10713,11 +10340,10 @@
         <v>1.4623617753386499E-2</v>
       </c>
       <c r="D375">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E375">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10732,11 +10358,10 @@
         <v>1.4998931437730789E-2</v>
       </c>
       <c r="D376">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E376">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10751,11 +10376,10 @@
         <v>1.4421639963984489E-2</v>
       </c>
       <c r="D377">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E377">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10770,11 +10394,10 @@
         <v>1.471870858222246E-2</v>
       </c>
       <c r="D378">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E378">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10789,11 +10412,10 @@
         <v>1.526871230453253E-2</v>
       </c>
       <c r="D379">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E379">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10808,11 +10430,10 @@
         <v>5.9322234243154533E-2</v>
       </c>
       <c r="D380">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E380">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10827,11 +10448,10 @@
         <v>1.4388487674295901E-2</v>
       </c>
       <c r="D381">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E381">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10846,11 +10466,10 @@
         <v>0.99009412527084351</v>
       </c>
       <c r="D382">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E382">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10865,11 +10484,10 @@
         <v>0.95706164836883545</v>
       </c>
       <c r="D383">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="E383">
-        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -10884,11 +10502,10 @@
         <v>1.4917136169970041E-2</v>
       </c>
       <c r="D384">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E384">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10903,11 +10520,10 @@
         <v>1.42928259447217E-2</v>
       </c>
       <c r="D385">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E385">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -10922,11 +10538,10 @@
         <v>1.6269538551568982E-2</v>
       </c>
       <c r="D386">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E386">
-        <f t="shared" ref="E386:E449" si="12">IF(ISBLANK(F386),D386,F386)</f>
         <v>0</v>
       </c>
     </row>
@@ -10941,11 +10556,10 @@
         <v>2.7318974956870079E-2</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="13">IF(C387&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E387">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10960,11 +10574,10 @@
         <v>1.7568206414580349E-2</v>
       </c>
       <c r="D388">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E388">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10979,11 +10592,10 @@
         <v>2.2787429392337799E-2</v>
       </c>
       <c r="D389">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E389">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10998,11 +10610,10 @@
         <v>1.4356705360114569E-2</v>
       </c>
       <c r="D390">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E390">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11017,11 +10628,10 @@
         <v>0.99061077833175659</v>
       </c>
       <c r="D391">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E391">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11036,11 +10646,10 @@
         <v>1.7418531700968739E-2</v>
       </c>
       <c r="D392">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E392">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11055,11 +10664,10 @@
         <v>1.5679448843002319E-2</v>
       </c>
       <c r="D393">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E393">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11074,11 +10682,10 @@
         <v>1.510496996343136E-2</v>
       </c>
       <c r="D394">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E394">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11093,11 +10700,10 @@
         <v>0.97398167848587036</v>
       </c>
       <c r="D395">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E395">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11112,11 +10718,10 @@
         <v>0.97751563787460327</v>
       </c>
       <c r="D396">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E396">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11131,11 +10736,10 @@
         <v>0.88223510980606079</v>
       </c>
       <c r="D397">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E397">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11150,11 +10754,10 @@
         <v>0.990409255027771</v>
       </c>
       <c r="D398">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E398">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11169,11 +10772,10 @@
         <v>0.99059778451919556</v>
       </c>
       <c r="D399">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E399">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11188,11 +10790,10 @@
         <v>2.3073120042681691E-2</v>
       </c>
       <c r="D400">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E400">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11207,11 +10808,10 @@
         <v>0.98808515071868896</v>
       </c>
       <c r="D401">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E401">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11226,11 +10826,10 @@
         <v>2.8022147715091709E-2</v>
       </c>
       <c r="D402">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E402">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11245,11 +10844,10 @@
         <v>2.5795003399252892E-2</v>
       </c>
       <c r="D403">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E403">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11264,11 +10862,10 @@
         <v>1.7061015591025349E-2</v>
       </c>
       <c r="D404">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E404">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11283,11 +10880,10 @@
         <v>1.9054977223277089E-2</v>
       </c>
       <c r="D405">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E405">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11302,11 +10898,10 @@
         <v>2.962743304669857E-2</v>
       </c>
       <c r="D406">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E406">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11321,11 +10916,10 @@
         <v>1.423292607069016E-2</v>
       </c>
       <c r="D407">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E407">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11340,11 +10934,10 @@
         <v>1.545893680304289E-2</v>
       </c>
       <c r="D408">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E408">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11359,11 +10952,10 @@
         <v>5.9839367866516113E-2</v>
       </c>
       <c r="D409">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E409">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11378,11 +10970,10 @@
         <v>0.33110368251800543</v>
       </c>
       <c r="D410">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E410">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11397,11 +10988,10 @@
         <v>1.445048023015261E-2</v>
       </c>
       <c r="D411">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E411">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11416,11 +11006,10 @@
         <v>1.437911950051785E-2</v>
       </c>
       <c r="D412">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E412">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11435,11 +11024,10 @@
         <v>1.5268196351826189E-2</v>
       </c>
       <c r="D413">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E413">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11454,11 +11042,10 @@
         <v>1.872319541871548E-2</v>
       </c>
       <c r="D414">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E414">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11473,11 +11060,10 @@
         <v>1.4517483301460739E-2</v>
       </c>
       <c r="D415">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E415">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11492,11 +11078,10 @@
         <v>1.4204072766005989E-2</v>
       </c>
       <c r="D416">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E416">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11511,11 +11096,10 @@
         <v>1.427298132330179E-2</v>
       </c>
       <c r="D417">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E417">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11530,11 +11114,10 @@
         <v>1.421241462230682E-2</v>
       </c>
       <c r="D418">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E418">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11549,11 +11132,10 @@
         <v>1.676379889249802E-2</v>
       </c>
       <c r="D419">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E419">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11568,11 +11150,10 @@
         <v>1.488842070102692E-2</v>
       </c>
       <c r="D420">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E420">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11587,11 +11168,10 @@
         <v>1.787424273788929E-2</v>
       </c>
       <c r="D421">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E421">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11606,11 +11186,10 @@
         <v>2.35213115811348E-2</v>
       </c>
       <c r="D422">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E422">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11625,11 +11204,10 @@
         <v>1.4365082606673241E-2</v>
       </c>
       <c r="D423">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E423">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11644,11 +11222,10 @@
         <v>0.33111035823822021</v>
       </c>
       <c r="D424">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E424">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11663,11 +11240,10 @@
         <v>1.4347909949719909E-2</v>
       </c>
       <c r="D425">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E425">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11682,11 +11258,10 @@
         <v>1.4197478070855141E-2</v>
       </c>
       <c r="D426">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E426">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11701,11 +11276,10 @@
         <v>1.4603362418711191E-2</v>
       </c>
       <c r="D427">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E427">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11720,11 +11294,10 @@
         <v>1.4546524733304979E-2</v>
       </c>
       <c r="D428">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E428">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11739,11 +11312,10 @@
         <v>1.9175423309206959E-2</v>
       </c>
       <c r="D429">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E429">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11758,11 +11330,10 @@
         <v>1.4175317250192171E-2</v>
       </c>
       <c r="D430">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E430">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11777,11 +11348,10 @@
         <v>1.497643254697323E-2</v>
       </c>
       <c r="D431">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E431">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11796,11 +11366,10 @@
         <v>4.1821826249361038E-2</v>
       </c>
       <c r="D432">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E432">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11815,11 +11384,10 @@
         <v>2.5033753365278241E-2</v>
       </c>
       <c r="D433">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E433">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11834,11 +11402,10 @@
         <v>0.98733717203140259</v>
       </c>
       <c r="D434">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E434">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -11853,11 +11420,10 @@
         <v>2.0637692883610729E-2</v>
       </c>
       <c r="D435">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E435">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11872,11 +11438,10 @@
         <v>4.4134724885225303E-2</v>
       </c>
       <c r="D436">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E436">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11891,11 +11456,10 @@
         <v>2.021870389580727E-2</v>
       </c>
       <c r="D437">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E437">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11910,11 +11474,10 @@
         <v>1.427365932613611E-2</v>
       </c>
       <c r="D438">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E438">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11929,11 +11492,10 @@
         <v>1.4518676325678831E-2</v>
       </c>
       <c r="D439">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E439">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11948,11 +11510,10 @@
         <v>7.5124099850654602E-2</v>
       </c>
       <c r="D440">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E440">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11967,11 +11528,10 @@
         <v>1.442213542759418E-2</v>
       </c>
       <c r="D441">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E441">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -11986,11 +11546,10 @@
         <v>0.99060612916946411</v>
       </c>
       <c r="D442">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E442">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -12005,11 +11564,10 @@
         <v>1.8593247979879379E-2</v>
       </c>
       <c r="D443">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E443">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12024,11 +11582,10 @@
         <v>3.0687423422932621E-2</v>
       </c>
       <c r="D444">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E444">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12043,11 +11600,10 @@
         <v>3.0903888866305351E-2</v>
       </c>
       <c r="D445">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E445">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12062,11 +11618,10 @@
         <v>1.488263066858053E-2</v>
       </c>
       <c r="D446">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E446">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12081,11 +11636,10 @@
         <v>1.429478172212839E-2</v>
       </c>
       <c r="D447">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E447">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12100,11 +11654,10 @@
         <v>0.1098269745707512</v>
       </c>
       <c r="D448">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E448">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12119,11 +11672,10 @@
         <v>1.6072329133749012E-2</v>
       </c>
       <c r="D449">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E449">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12138,11 +11690,10 @@
         <v>1.94568932056427E-2</v>
       </c>
       <c r="D450">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E450">
-        <f t="shared" ref="E450:E513" si="14">IF(ISBLANK(F450),D450,F450)</f>
         <v>0</v>
       </c>
     </row>
@@ -12157,11 +11708,10 @@
         <v>1.422621682286263E-2</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="15">IF(C451&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E451">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12176,11 +11726,10 @@
         <v>0.99016320705413818</v>
       </c>
       <c r="D452">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E452">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -12195,11 +11744,10 @@
         <v>1.4534172601997851E-2</v>
       </c>
       <c r="D453">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E453">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12214,11 +11762,10 @@
         <v>1.446670573204756E-2</v>
       </c>
       <c r="D454">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E454">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12233,11 +11780,10 @@
         <v>1.4609339646995069E-2</v>
       </c>
       <c r="D455">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E455">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12252,11 +11798,10 @@
         <v>1.420819293707609E-2</v>
       </c>
       <c r="D456">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E456">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12271,11 +11816,10 @@
         <v>1.4476411044597629E-2</v>
       </c>
       <c r="D457">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E457">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12290,11 +11834,10 @@
         <v>1.4449910260736941E-2</v>
       </c>
       <c r="D458">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E458">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12309,11 +11852,10 @@
         <v>4.2471494525671012E-2</v>
       </c>
       <c r="D459">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E459">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12328,11 +11870,10 @@
         <v>1.430801767855883E-2</v>
       </c>
       <c r="D460">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E460">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12347,11 +11888,10 @@
         <v>1.4300850220024589E-2</v>
       </c>
       <c r="D461">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E461">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12366,11 +11906,10 @@
         <v>1.8276914954185489E-2</v>
       </c>
       <c r="D462">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E462">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12385,11 +11924,10 @@
         <v>3.7995986640453339E-2</v>
       </c>
       <c r="D463">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E463">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12404,11 +11942,10 @@
         <v>1.4184375293552881E-2</v>
       </c>
       <c r="D464">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E464">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12423,11 +11960,10 @@
         <v>2.116025984287262E-2</v>
       </c>
       <c r="D465">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E465">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12442,11 +11978,10 @@
         <v>1.538429036736488E-2</v>
       </c>
       <c r="D466">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E466">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12461,11 +11996,10 @@
         <v>1.467049028724432E-2</v>
       </c>
       <c r="D467">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E467">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12480,11 +12014,10 @@
         <v>1.576349139213562E-2</v>
       </c>
       <c r="D468">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E468">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12499,11 +12032,10 @@
         <v>0.80629706382751465</v>
       </c>
       <c r="D469">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E469">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F469">
@@ -12521,11 +12053,10 @@
         <v>1.952205412089825E-2</v>
       </c>
       <c r="D470">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E470">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12540,11 +12071,10 @@
         <v>1.5864618122577671E-2</v>
       </c>
       <c r="D471">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E471">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12559,11 +12089,10 @@
         <v>1.421560812741518E-2</v>
       </c>
       <c r="D472">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E472">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12578,11 +12107,10 @@
         <v>1.774257980287075E-2</v>
       </c>
       <c r="D473">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E473">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12597,11 +12125,10 @@
         <v>1.882291212677956E-2</v>
       </c>
       <c r="D474">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E474">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12616,11 +12143,10 @@
         <v>0.99056071043014526</v>
       </c>
       <c r="D475">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E475">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F475">
@@ -12638,11 +12164,10 @@
         <v>1.460161898285151E-2</v>
       </c>
       <c r="D476">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E476">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12657,11 +12182,10 @@
         <v>5.6756105273962021E-2</v>
       </c>
       <c r="D477">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E477">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12676,11 +12200,10 @@
         <v>1.490786951035261E-2</v>
       </c>
       <c r="D478">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E478">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12695,11 +12218,10 @@
         <v>1.44111318513751E-2</v>
       </c>
       <c r="D479">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E479">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12714,11 +12236,10 @@
         <v>0.9905771017074585</v>
       </c>
       <c r="D480">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E480">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F480">
@@ -12736,11 +12257,10 @@
         <v>2.0696034654974941E-2</v>
       </c>
       <c r="D481">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E481">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12755,11 +12275,10 @@
         <v>0.98562347888946533</v>
       </c>
       <c r="D482">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E482">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F482">
@@ -12777,11 +12296,10 @@
         <v>0.9472687840461731</v>
       </c>
       <c r="D483">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E483">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F483">
@@ -12799,11 +12317,10 @@
         <v>2.522537857294083E-2</v>
       </c>
       <c r="D484">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E484">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12818,11 +12335,10 @@
         <v>1.434643939137459E-2</v>
       </c>
       <c r="D485">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E485">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12837,11 +12353,10 @@
         <v>0.96451067924499512</v>
       </c>
       <c r="D486">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E486">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="F486">
@@ -12859,11 +12374,10 @@
         <v>1.4579899609088899E-2</v>
       </c>
       <c r="D487">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E487">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12878,11 +12392,10 @@
         <v>1.5323621220886711E-2</v>
       </c>
       <c r="D488">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E488">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12897,11 +12410,10 @@
         <v>1.6787843778729439E-2</v>
       </c>
       <c r="D489">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E489">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12916,11 +12428,10 @@
         <v>1.4674185775220391E-2</v>
       </c>
       <c r="D490">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E490">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12935,11 +12446,10 @@
         <v>1.559392921626568E-2</v>
       </c>
       <c r="D491">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E491">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12954,11 +12464,10 @@
         <v>1.442657504230738E-2</v>
       </c>
       <c r="D492">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E492">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12973,11 +12482,10 @@
         <v>1.422788761556149E-2</v>
       </c>
       <c r="D493">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E493">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12992,11 +12500,10 @@
         <v>1.471553463488817E-2</v>
       </c>
       <c r="D494">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E494">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13011,11 +12518,10 @@
         <v>1.5564039349555969E-2</v>
       </c>
       <c r="D495">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E495">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13030,11 +12536,10 @@
         <v>1.4486134983599189E-2</v>
       </c>
       <c r="D496">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E496">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13049,11 +12554,10 @@
         <v>1.4200428500771521E-2</v>
       </c>
       <c r="D497">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E497">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13068,11 +12572,10 @@
         <v>1.470635551959276E-2</v>
       </c>
       <c r="D498">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E498">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13087,11 +12590,10 @@
         <v>1.478742249310017E-2</v>
       </c>
       <c r="D499">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E499">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13106,11 +12608,10 @@
         <v>9.016987681388855E-2</v>
       </c>
       <c r="D500">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E500">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13125,11 +12626,10 @@
         <v>0.99062633514404297</v>
       </c>
       <c r="D501">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E501">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13144,11 +12644,10 @@
         <v>1.4450228773057461E-2</v>
       </c>
       <c r="D502">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E502">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13163,11 +12662,10 @@
         <v>1.5639970079064369E-2</v>
       </c>
       <c r="D503">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E503">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13182,11 +12680,10 @@
         <v>1.6843406483531002E-2</v>
       </c>
       <c r="D504">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E504">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13201,11 +12698,10 @@
         <v>0.99061262607574463</v>
       </c>
       <c r="D505">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E505">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13220,11 +12716,10 @@
         <v>1.428757980465889E-2</v>
       </c>
       <c r="D506">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E506">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13239,11 +12734,10 @@
         <v>1.4162124134600161E-2</v>
       </c>
       <c r="D507">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E507">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13258,11 +12752,10 @@
         <v>1.4213490299880499E-2</v>
       </c>
       <c r="D508">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E508">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13277,11 +12770,10 @@
         <v>3.1758960336446762E-2</v>
       </c>
       <c r="D509">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E509">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13296,11 +12788,10 @@
         <v>0.9365125298500061</v>
       </c>
       <c r="D510">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E510">
-        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -13315,11 +12806,10 @@
         <v>1.482439041137695E-2</v>
       </c>
       <c r="D511">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E511">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13334,11 +12824,10 @@
         <v>0.18272317945957181</v>
       </c>
       <c r="D512">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E512">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13353,11 +12842,10 @@
         <v>2.0087875425815579E-2</v>
       </c>
       <c r="D513">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E513">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -13372,11 +12860,10 @@
         <v>1.42403207719326E-2</v>
       </c>
       <c r="D514">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E518" si="16">IF(ISBLANK(F514),D514,F514)</f>
         <v>0</v>
       </c>
     </row>
@@ -13391,11 +12878,10 @@
         <v>1.4530034735798839E-2</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D518" si="17">IF(C515&gt;0.5, 1, 0)</f>
+        <f t="shared" ref="D515:D518" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="E515">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13410,11 +12896,10 @@
         <v>1.442843303084373E-2</v>
       </c>
       <c r="D516">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E516">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13429,11 +12914,10 @@
         <v>1.4673903584480291E-2</v>
       </c>
       <c r="D517">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E517">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -13448,11 +12932,10 @@
         <v>0.99059790372848511</v>
       </c>
       <c r="D518">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E518">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F518">
